--- a/GA_bNa_bCa_NaK/Errors2.xlsx
+++ b/GA_bNa_bCa_NaK/Errors2.xlsx
@@ -447,634 +447,634 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>92640.77295757396</v>
+        <v>482568.0400380886</v>
       </c>
       <c r="B2" t="n">
-        <v>500860.8000656654</v>
+        <v>93739.29112848973</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>374131.4356635803</v>
+        <v>475059.0217238921</v>
       </c>
       <c r="B3" t="n">
-        <v>506825.7683328656</v>
+        <v>14802.91108961574</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>123556.5776373741</v>
+        <v>462530.6682576941</v>
       </c>
       <c r="B4" t="n">
-        <v>503718.9649181063</v>
+        <v>59207.70178526305</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>86249.76353633526</v>
+        <v>426139.3542279741</v>
       </c>
       <c r="B5" t="n">
-        <v>487793.5315896511</v>
+        <v>13428.59097299753</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>20486.57486136748</v>
+        <v>409980.2598906018</v>
       </c>
       <c r="B6" t="n">
-        <v>482276.6421989392</v>
+        <v>12449.174824106</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>159869.7037828117</v>
+        <v>351815.5300146512</v>
       </c>
       <c r="B7" t="n">
-        <v>497228.6875185068</v>
+        <v>8899.560396655197</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>119281.0370387754</v>
+        <v>323825.5460576123</v>
       </c>
       <c r="B8" t="n">
-        <v>484362.0282366355</v>
+        <v>15087.26565940759</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>71099.74635080114</v>
+        <v>298912.6671373608</v>
       </c>
       <c r="B9" t="n">
-        <v>488843.5555167237</v>
+        <v>1956.162394107355</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>39855.24559976221</v>
+        <v>252569.4505609098</v>
       </c>
       <c r="B10" t="n">
-        <v>486384.8264395146</v>
+        <v>2001.165227205103</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>40918.88172924623</v>
+        <v>205469.8429619975</v>
       </c>
       <c r="B11" t="n">
-        <v>477854.010402492</v>
+        <v>1858.537163350657</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>40534.77903087338</v>
+        <v>196614.0705354165</v>
       </c>
       <c r="B12" t="n">
-        <v>465601.8214579938</v>
+        <v>1840.710368053399</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>32895.36386454248</v>
+        <v>153474.9686798287</v>
       </c>
       <c r="B13" t="n">
-        <v>472771.4871865723</v>
+        <v>1688.369690593638</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>23050.76266862666</v>
+        <v>126053.0804248673</v>
       </c>
       <c r="B14" t="n">
-        <v>461380.412866004</v>
+        <v>1989.889245678183</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>10177.22596584298</v>
+        <v>77595.45393372074</v>
       </c>
       <c r="B15" t="n">
-        <v>445669.0878920013</v>
+        <v>1749.002077810219</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>20854.21313554424</v>
+        <v>58740.97568617424</v>
       </c>
       <c r="B16" t="n">
-        <v>423958.3942417119</v>
+        <v>1758.277498117787</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>23198.71356147693</v>
+        <v>55743.09622185896</v>
       </c>
       <c r="B17" t="n">
-        <v>441092.365215178</v>
+        <v>1632.103614153989</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>14780.18033836952</v>
+        <v>17442.95181050397</v>
       </c>
       <c r="B18" t="n">
-        <v>420534.4243661631</v>
+        <v>1526.585293024956</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>13808.56705116368</v>
+        <v>54232.61845836964</v>
       </c>
       <c r="B19" t="n">
-        <v>414478.0201105285</v>
+        <v>1724.306402657823</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>22542.64509233795</v>
+        <v>27342.67657934046</v>
       </c>
       <c r="B20" t="n">
-        <v>417976.0388547901</v>
+        <v>1538.109803515085</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>8530.393478522521</v>
+        <v>27720.06830280995</v>
       </c>
       <c r="B21" t="n">
-        <v>403758.4273398755</v>
+        <v>1583.546205199653</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4397.556383527181</v>
+        <v>23799.3239892042</v>
       </c>
       <c r="B22" t="n">
-        <v>381686.6008511954</v>
+        <v>1539.761772079126</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1875.19853831307</v>
+        <v>15341.14102010897</v>
       </c>
       <c r="B23" t="n">
-        <v>339478.7396553057</v>
+        <v>1477.417970437893</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1874.612949082774</v>
+        <v>31340.04100266745</v>
       </c>
       <c r="B24" t="n">
-        <v>266441.6310854863</v>
+        <v>1632.463650658024</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1986.410253488771</v>
+        <v>7365.699176562837</v>
       </c>
       <c r="B25" t="n">
-        <v>224984.8448482653</v>
+        <v>1565.697745603939</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2294.386742754999</v>
+        <v>8611.663367562622</v>
       </c>
       <c r="B26" t="n">
-        <v>152573.701891376</v>
+        <v>1397.620240196934</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1648.554649813575</v>
+        <v>38066.44733345201</v>
       </c>
       <c r="B27" t="n">
-        <v>127161.523398222</v>
+        <v>1569.427222256335</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1212.365724436516</v>
+        <v>22361.50446959796</v>
       </c>
       <c r="B28" t="n">
-        <v>146347.3005195243</v>
+        <v>1509.786520043581</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1567.827836557871</v>
+        <v>19545.43600540515</v>
       </c>
       <c r="B29" t="n">
-        <v>107890.2688778638</v>
+        <v>1469.594191602906</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1226.143461894618</v>
+        <v>47196.96109187754</v>
       </c>
       <c r="B30" t="n">
-        <v>86743.17897667625</v>
+        <v>1419.423526767483</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1340.469504621087</v>
+        <v>45520.21450090584</v>
       </c>
       <c r="B31" t="n">
-        <v>75312.13205303266</v>
+        <v>1410.859112430392</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1260.089662130963</v>
+        <v>28749.0638496574</v>
       </c>
       <c r="B32" t="n">
-        <v>74686.18565928475</v>
+        <v>1162.8628359697</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1290.388514014248</v>
+        <v>32486.54247282304</v>
       </c>
       <c r="B33" t="n">
-        <v>43483.03697023357</v>
+        <v>1378.081782909493</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1216.023223203079</v>
+        <v>39596.48107521114</v>
       </c>
       <c r="B34" t="n">
-        <v>37041.90707313349</v>
+        <v>1372.541368158224</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1004.542618802987</v>
+        <v>48403.10453660799</v>
       </c>
       <c r="B35" t="n">
-        <v>44249.19220518992</v>
+        <v>1342.135945669494</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1052.902570930589</v>
+        <v>31454.26704339661</v>
       </c>
       <c r="B36" t="n">
-        <v>35774.49872885959</v>
+        <v>1349.153766635426</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1110.826021926485</v>
+        <v>61651.73524615294</v>
       </c>
       <c r="B37" t="n">
-        <v>15847.67320757833</v>
+        <v>1379.121827464891</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1025.839956465686</v>
+        <v>46488.41426994266</v>
       </c>
       <c r="B38" t="n">
-        <v>20633.06786728032</v>
+        <v>1440.014542607724</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>967.0092029415837</v>
+        <v>33957.3281942675</v>
       </c>
       <c r="B39" t="n">
-        <v>22036.69715484519</v>
+        <v>1385.76455735464</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>635.3312172726852</v>
+        <v>53703.13864192386</v>
       </c>
       <c r="B40" t="n">
-        <v>26361.01523386963</v>
+        <v>1342.290814678331</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>943.7212205754265</v>
+        <v>38784.46631982799</v>
       </c>
       <c r="B41" t="n">
-        <v>28274.1893955516</v>
+        <v>1329.639002975216</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>973.2770399519879</v>
+        <v>63721.22507619471</v>
       </c>
       <c r="B42" t="n">
-        <v>29669.35048244452</v>
+        <v>1311.592970915056</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>872.5428653371619</v>
+        <v>60317.99566261025</v>
       </c>
       <c r="B43" t="n">
-        <v>26066.54521115414</v>
+        <v>1335.244329706182</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>877.5758829678614</v>
+        <v>63019.87610982672</v>
       </c>
       <c r="B44" t="n">
-        <v>28075.87310247543</v>
+        <v>1335.244329706182</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>702.4387464048435</v>
+        <v>53598.78723887271</v>
       </c>
       <c r="B45" t="n">
-        <v>28437.40288906269</v>
+        <v>1412.628513018579</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>646.1528954944656</v>
+        <v>34967.80855579305</v>
       </c>
       <c r="B46" t="n">
-        <v>17333.97540459859</v>
+        <v>1319.429281332123</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>582.5451285629595</v>
+        <v>29857.25751441549</v>
       </c>
       <c r="B47" t="n">
-        <v>22095.5730686142</v>
+        <v>1303.948675280265</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>502.6777613347148</v>
+        <v>45785.57244704405</v>
       </c>
       <c r="B48" t="n">
-        <v>35236.12050099571</v>
+        <v>1327.705822299946</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>645.9203825779832</v>
+        <v>41023.49402262675</v>
       </c>
       <c r="B49" t="n">
-        <v>40373.94407109355</v>
+        <v>1259.955217256338</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>714.9384941099481</v>
+        <v>44683.4042173101</v>
       </c>
       <c r="B50" t="n">
-        <v>29315.25628052583</v>
+        <v>1334.012751586381</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>598.5695208425909</v>
+        <v>62756.84902607493</v>
       </c>
       <c r="B51" t="n">
-        <v>32136.58486971771</v>
+        <v>1250.913979665589</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>648.3743914977343</v>
+        <v>76627.95927577074</v>
       </c>
       <c r="B52" t="n">
-        <v>38134.69384302491</v>
+        <v>1333.643944615153</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>614.0732962092856</v>
+        <v>49437.42022311464</v>
       </c>
       <c r="B53" t="n">
-        <v>25875.71879996308</v>
+        <v>1294.394991736468</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>656.9850996146753</v>
+        <v>38749.03207161</v>
       </c>
       <c r="B54" t="n">
-        <v>35786.35669489395</v>
+        <v>1237.403582645471</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>709.1064746183918</v>
+        <v>30572.19621955472</v>
       </c>
       <c r="B55" t="n">
-        <v>38689.68615154552</v>
+        <v>1259.712458625766</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>758.185977535968</v>
+        <v>57766.97224289762</v>
       </c>
       <c r="B56" t="n">
-        <v>31178.68104070462</v>
+        <v>1234.340767686909</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>753.0880051637664</v>
+        <v>63982.22073825712</v>
       </c>
       <c r="B57" t="n">
-        <v>19276.77794957093</v>
+        <v>1258.435900591562</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>547.1719556613791</v>
+        <v>67131.1547770032</v>
       </c>
       <c r="B58" t="n">
-        <v>13862.51590969655</v>
+        <v>1223.853562150989</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>504.3754142991313</v>
+        <v>67280.73132041382</v>
       </c>
       <c r="B59" t="n">
-        <v>33579.87761226328</v>
+        <v>1246.757806693748</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>677.1653582329368</v>
+        <v>49036.99638868324</v>
       </c>
       <c r="B60" t="n">
-        <v>27250.44321465435</v>
+        <v>1277.736040378899</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>670.6918566576261</v>
+        <v>61433.1138283766</v>
       </c>
       <c r="B61" t="n">
-        <v>24681.62104406459</v>
+        <v>1204.861528406368</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>775.0644064397949</v>
+        <v>45969.4349365613</v>
       </c>
       <c r="B62" t="n">
-        <v>56479.00420358441</v>
+        <v>1196.557815742446</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>799.5625126786279</v>
+        <v>52727.4182537412</v>
       </c>
       <c r="B63" t="n">
-        <v>44250.4592080134</v>
+        <v>1242.452407814895</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>756.5376195041997</v>
+        <v>22618.79728047885</v>
       </c>
       <c r="B64" t="n">
-        <v>13878.31725600567</v>
+        <v>1121.083028182573</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>704.5633831499975</v>
+        <v>24181.89916577478</v>
       </c>
       <c r="B65" t="n">
-        <v>8095.743624137624</v>
+        <v>1121.536706843595</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>640.0321761875366</v>
+        <v>38790.52906990948</v>
       </c>
       <c r="B66" t="n">
-        <v>40048.55126967628</v>
+        <v>1188.975779232026</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>707.0260717693396</v>
+        <v>51970.03860553488</v>
       </c>
       <c r="B67" t="n">
-        <v>54794.08289801588</v>
+        <v>1143.510146382239</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>696.0342509350739</v>
+        <v>70018.94779201779</v>
       </c>
       <c r="B68" t="n">
-        <v>21792.84305835297</v>
+        <v>1109.270962118576</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>669.7543974445795</v>
+        <v>38454.83172707409</v>
       </c>
       <c r="B69" t="n">
-        <v>17671.83476355632</v>
+        <v>1137.239048523456</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>636.2676345916519</v>
+        <v>39321.27382611705</v>
       </c>
       <c r="B70" t="n">
-        <v>44765.4520462673</v>
+        <v>1123.851804590858</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>620.711932393618</v>
+        <v>34341.95679373803</v>
       </c>
       <c r="B71" t="n">
-        <v>50570.88249250333</v>
+        <v>1136.579888951709</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>620.711932393618</v>
+        <v>39684.26319011529</v>
       </c>
       <c r="B72" t="n">
-        <v>49279.80055113034</v>
+        <v>1098.943100019551</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>637.0437706958443</v>
+        <v>34410.37564006123</v>
       </c>
       <c r="B73" t="n">
-        <v>36130.59218106903</v>
+        <v>1081.873591859328</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>583.4931707472687</v>
+        <v>27821.36750227031</v>
       </c>
       <c r="B74" t="n">
-        <v>16670.7340050342</v>
+        <v>1051.663144367056</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>583.4931707472687</v>
+        <v>29046.67298045685</v>
       </c>
       <c r="B75" t="n">
-        <v>39034.68806564265</v>
+        <v>1045.704001040572</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>592.0391583704943</v>
+        <v>23900.04545487206</v>
       </c>
       <c r="B76" t="n">
-        <v>36134.45682431846</v>
+        <v>1050.952260943028</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>622.1342618147726</v>
+        <v>24547.80237077554</v>
       </c>
       <c r="B77" t="n">
-        <v>20160.0092936396</v>
+        <v>1135.576821104229</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>654.8566563034982</v>
+        <v>17312.62884063431</v>
       </c>
       <c r="B78" t="n">
-        <v>30553.96495229055</v>
+        <v>1048.855842040155</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>681.8175198351536</v>
+        <v>43273.9409774658</v>
       </c>
       <c r="B79" t="n">
-        <v>42601.57686383204</v>
+        <v>1056.199215131175</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>616.1403361164847</v>
+        <v>33651.12176817867</v>
       </c>
       <c r="B80" t="n">
-        <v>56464.2911176628</v>
+        <v>1040.024536062889</v>
       </c>
     </row>
   </sheetData>
